--- a/academycity/data/covid/datasets/excel/raw_data/Covid.xlsx
+++ b/academycity/data/covid/datasets/excel/raw_data/Covid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">entity</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">MEGURIM</t>
   </si>
   <si>
+    <t xml:space="preserve">end_indeps</t>
+  </si>
+  <si>
     <t xml:space="preserve">HHADASHIM</t>
   </si>
   <si>
@@ -59,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -85,13 +89,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,12 +157,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,14 +170,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -226,23 +251,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,7 +292,7 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -278,40 +303,44 @@
       </c>
       <c r="K1" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>-69</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>-49</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>-45</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>-55</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3"/>
+      <c r="I2" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="4" t="n">
         <v>0.000498697844517094</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K2" s="4" t="n">
         <v>0.00181932361796051</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="4" t="n">
         <v>0.000230878631720877</v>
       </c>
     </row>
@@ -319,34 +348,35 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>-92</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>-83</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>-67</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>-68</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>-83</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="4" t="n">
         <v>0.000692635895162631</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="K3" s="4" t="n">
         <v>0.00182855876322935</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="L3" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
     </row>
@@ -354,34 +384,35 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>-56</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>-39</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="4" t="n">
         <v>0.000905044236345838</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="4" t="n">
         <v>0.00182855876322935</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
     </row>
@@ -389,34 +420,35 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="4" t="n">
         <v>0.000877338800539333</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="4" t="n">
         <v>0.00182855876322935</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
     </row>
@@ -424,34 +456,35 @@
       <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>-49</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="4" t="n">
         <v>0.000803457638388652</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="4" t="n">
         <v>0.00188396963484236</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="4" t="n">
         <v>0.000129292033763691</v>
       </c>
     </row>
@@ -459,34 +492,35 @@
       <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>-48</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>-31</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="n">
         <v>0.000120056888494856</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="4" t="n">
         <v>0.000757281912044476</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="4" t="n">
         <v>0.0019209102159177</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="4" t="n">
         <v>0.000129292033763691</v>
       </c>
     </row>
@@ -494,34 +528,35 @@
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>-43</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>-35</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="4" t="n">
         <v>0.000692635895162631</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="4" t="n">
         <v>0.00193014536118653</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="4" t="n">
         <v>0.000129292033763691</v>
       </c>
     </row>
@@ -529,34 +564,35 @@
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>-52</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="4" t="n">
         <v>0.000646460168818456</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="K9" s="4" t="n">
         <v>0.00193938050645537</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="L9" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
     </row>
@@ -564,34 +600,35 @@
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>-45</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="J10" s="4" t="n">
         <v>0.00060028444247428</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="K10" s="4" t="n">
         <v>0.00193938050645537</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="L10" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
     </row>
@@ -599,34 +636,35 @@
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>-42</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="4" t="n">
         <v>0.000572579006667775</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="K11" s="4" t="n">
         <v>0.00193938050645537</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="L11" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
     </row>
@@ -634,34 +672,35 @@
       <c r="A12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>-38</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="4" t="n">
         <v>0.000554108716130105</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="K12" s="4" t="n">
         <v>0.00196708594226187</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="L12" s="4" t="n">
         <v>0.000230878631720877</v>
       </c>
     </row>
@@ -669,34 +708,35 @@
       <c r="A13" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>-41</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>-24</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3"/>
+      <c r="I13" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="4" t="n">
         <v>0.000517168135054764</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="K13" s="4" t="n">
         <v>0.00198555623279954</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="L13" s="4" t="n">
         <v>0.000415581537097579</v>
       </c>
     </row>
@@ -704,34 +744,35 @@
       <c r="A14" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>-44</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="J14" s="4" t="n">
         <v>0.000480227553979424</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="K14" s="4" t="n">
         <v>0.00200402652333721</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="L14" s="4" t="n">
         <v>0.000572579006667775</v>
       </c>
     </row>
@@ -739,34 +780,35 @@
       <c r="A15" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>-40</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="J15" s="4" t="n">
         <v>0.000443286972904084</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="K15" s="4" t="n">
         <v>0.00200402652333721</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="L15" s="4" t="n">
         <v>0.000664930459356126</v>
       </c>
     </row>
@@ -774,34 +816,35 @@
       <c r="A16" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="n">
         <v>9.23514526883508E-006</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="J16" s="4" t="n">
         <v>0.000434051827635249</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="K16" s="4" t="n">
         <v>0.00200402652333721</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="L16" s="4" t="n">
         <v>0.000674165604624961</v>
       </c>
     </row>
@@ -809,34 +852,35 @@
       <c r="A17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>-31</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="J17" s="4" t="n">
         <v>0.000415581537097579</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="K17" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="L17" s="4" t="n">
         <v>0.000683400749893796</v>
       </c>
     </row>
@@ -844,34 +888,35 @@
       <c r="A18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>-35</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="J18" s="4" t="n">
         <v>0.000387876101291073</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="K18" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="L18" s="4" t="n">
         <v>0.00058181415193661</v>
       </c>
     </row>
@@ -879,34 +924,35 @@
       <c r="A19" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>-33</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="J19" s="4" t="n">
         <v>0.000369405810753403</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="K19" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="L19" s="4" t="n">
         <v>0.000526403280323599</v>
       </c>
     </row>
@@ -914,34 +960,35 @@
       <c r="A20" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>-39</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3"/>
+      <c r="I20" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="J20" s="4" t="n">
         <v>0.000350935520215733</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="K20" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="L20" s="4" t="n">
         <v>0.000406346391828744</v>
       </c>
     </row>
@@ -949,34 +996,35 @@
       <c r="A21" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>-31</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>-54</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="n">
         <v>9.23514526883508E-006</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="J21" s="4" t="n">
         <v>0.000341700374946898</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="K21" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.000350935520215733</v>
       </c>
     </row>
@@ -984,34 +1032,35 @@
       <c r="A22" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>-37</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3"/>
+      <c r="I22" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="J22" s="4" t="n">
         <v>0.000323230084409228</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="K22" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="L22" s="4" t="n">
         <v>0.000304759793871558</v>
       </c>
     </row>
@@ -1019,34 +1068,35 @@
       <c r="A23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3"/>
+      <c r="I23" s="4" t="n">
         <v>9.23514526883508E-006</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="J23" s="4" t="n">
         <v>0.000313994939140393</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="K23" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="L23" s="4" t="n">
         <v>0.000323230084409228</v>
       </c>
     </row>
@@ -1054,34 +1104,35 @@
       <c r="A24" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3"/>
+      <c r="I24" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="J24" s="4" t="n">
         <v>0.000286289503333887</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="K24" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="L24" s="4" t="n">
         <v>0.000304759793871558</v>
       </c>
     </row>
@@ -1089,34 +1140,35 @@
       <c r="A25" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>-24</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>-46</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3"/>
+      <c r="I25" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="J25" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="K25" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="L25" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
     </row>
@@ -1124,34 +1176,35 @@
       <c r="A26" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="J26" s="4" t="n">
         <v>0.000230878631720877</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="K26" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="L26" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
     </row>
@@ -1159,34 +1212,35 @@
       <c r="A27" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3"/>
+      <c r="I27" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="J27" s="4" t="n">
         <v>0.000212408341183207</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="K27" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="L27" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
     </row>
@@ -1194,34 +1248,35 @@
       <c r="A28" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>-35</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3"/>
+      <c r="I28" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="J28" s="4" t="n">
         <v>0.000175467760107866</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="K28" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="L28" s="4" t="n">
         <v>0.000295524648602722</v>
       </c>
     </row>
@@ -1229,34 +1284,35 @@
       <c r="A29" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="2" t="n">
         <v>-54</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3"/>
+      <c r="I29" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="J29" s="4" t="n">
         <v>0.000138527179032526</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="K29" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="L29" s="4" t="n">
         <v>0.000332465229678063</v>
       </c>
     </row>
@@ -1264,34 +1320,35 @@
       <c r="A30" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>-61</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>-60</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="J30" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="K30" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="L30" s="4" t="n">
         <v>0.000323230084409228</v>
       </c>
     </row>
@@ -1299,34 +1356,35 @@
       <c r="A31" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="J31" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="K31" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="L31" s="4" t="n">
         <v>0.000295524648602722</v>
       </c>
     </row>
@@ -1334,34 +1392,35 @@
       <c r="A32" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3"/>
+      <c r="I32" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="J32" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="K32" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="L32" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
     </row>
@@ -1369,34 +1428,35 @@
       <c r="A33" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>-36</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="J33" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="K33" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="L33" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
     </row>
@@ -1404,34 +1464,35 @@
       <c r="A34" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>-43</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="3"/>
+      <c r="I34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="J34" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="K34" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="L34" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
     </row>
@@ -1439,34 +1500,35 @@
       <c r="A35" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>-40</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3"/>
+      <c r="I35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="J35" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="K35" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="L35" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
     </row>
@@ -1474,34 +1536,35 @@
       <c r="A36" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3"/>
+      <c r="I36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="J36" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="K36" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="L36" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
     </row>
@@ -1509,34 +1572,35 @@
       <c r="A37" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3"/>
+      <c r="I37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="J37" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="K37" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="L37" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
     </row>
@@ -1544,34 +1608,35 @@
       <c r="A38" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3"/>
+      <c r="I38" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="J38" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="K38" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="L38" s="4" t="n">
         <v>0.000286289503333887</v>
       </c>
     </row>
@@ -1579,34 +1644,35 @@
       <c r="A39" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3"/>
+      <c r="I39" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="J39" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="K39" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="L39" s="4" t="n">
         <v>0.000313994939140393</v>
       </c>
     </row>
@@ -1614,34 +1680,35 @@
       <c r="A40" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3"/>
+      <c r="I40" s="4" t="n">
         <v>9.23514526883508E-006</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="J40" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="K40" s="4" t="n">
         <v>0.00200402652333721</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="L40" s="4" t="n">
         <v>0.000729576476237971</v>
       </c>
     </row>
@@ -1649,34 +1716,35 @@
       <c r="A41" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3"/>
+      <c r="I41" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="J41" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="K41" s="4" t="n">
         <v>0.00204096710441255</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="L41" s="4" t="n">
         <v>0.00132986091871225</v>
       </c>
     </row>
@@ -1684,34 +1752,35 @@
       <c r="A42" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3"/>
+      <c r="I42" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="J42" s="4" t="n">
         <v>0.000156997469570196</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="K42" s="4" t="n">
         <v>0.00209637797602556</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="L42" s="4" t="n">
         <v>0.00199479137806838</v>
       </c>
     </row>
@@ -1719,34 +1788,35 @@
       <c r="A43" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="3"/>
+      <c r="I43" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="J43" s="4" t="n">
         <v>0.000212408341183207</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="K43" s="4" t="n">
         <v>0.00215178884763857</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="L43" s="4" t="n">
         <v>0.00228108088140226</v>
       </c>
     </row>
@@ -1754,34 +1824,35 @@
       <c r="A44" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3"/>
+      <c r="I44" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="J44" s="4" t="n">
         <v>0.000249348922258547</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="K44" s="4" t="n">
         <v>0.00218872942871391</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="L44" s="4" t="n">
         <v>0.00243807835097246</v>
       </c>
     </row>
@@ -1789,34 +1860,35 @@
       <c r="A45" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3"/>
+      <c r="I45" s="4" t="n">
         <v>1.84702905376702E-005</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="J45" s="4" t="n">
         <v>0.000267819212796217</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="K45" s="4" t="n">
         <v>0.00220719971925158</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="L45" s="4" t="n">
         <v>0.00261354611108033</v>
       </c>
     </row>
@@ -1824,34 +1896,35 @@
       <c r="A46" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3"/>
+      <c r="I46" s="4" t="n">
         <v>0.000129292033763691</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="J46" s="4" t="n">
         <v>0.000397111246559908</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="K46" s="4" t="n">
         <v>0.00233649175301527</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="L46" s="4" t="n">
         <v>0.00291830590495188</v>
       </c>
     </row>
@@ -1859,34 +1932,35 @@
       <c r="A47" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="3"/>
+      <c r="I47" s="4" t="n">
         <v>0.000120056888494856</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="J47" s="4" t="n">
         <v>0.000517168135054764</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="K47" s="4" t="n">
         <v>0.00245654864151013</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="L47" s="4" t="n">
         <v>0.0031584196819416</v>
       </c>
     </row>
@@ -1894,34 +1968,35 @@
       <c r="A48" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3"/>
+      <c r="I48" s="4" t="n">
         <v>0.000166232614839031</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="J48" s="4" t="n">
         <v>0.000683400749893796</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="K48" s="4" t="n">
         <v>0.00262278125634916</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="L48" s="4" t="n">
         <v>0.00330618200624296</v>
       </c>
     </row>
@@ -1929,34 +2004,35 @@
       <c r="A49" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="3"/>
+      <c r="I49" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="J49" s="4" t="n">
         <v>0.000738811621506806</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="K49" s="4" t="n">
         <v>0.00267819212796217</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="L49" s="4" t="n">
         <v>0.00340776860420014</v>
       </c>
     </row>
@@ -1964,34 +2040,35 @@
       <c r="A50" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3"/>
+      <c r="I50" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="J50" s="4" t="n">
         <v>0.000840398219463992</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="K50" s="4" t="n">
         <v>0.00277977872591936</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="L50" s="4" t="n">
         <v>0.00345394433054432</v>
       </c>
     </row>
@@ -1999,34 +2076,35 @@
       <c r="A51" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F51" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="3"/>
+      <c r="I51" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="J51" s="4" t="n">
         <v>0.000905044236345838</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="K51" s="4" t="n">
         <v>0.0028444247428012</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="L51" s="4" t="n">
         <v>0.00348164976635082</v>
       </c>
     </row>
@@ -2034,34 +2112,35 @@
       <c r="A52" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F52" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3"/>
+      <c r="I52" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="J52" s="4" t="n">
         <v>0.000997395689034189</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="K52" s="4" t="n">
         <v>0.00293677619548956</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="L52" s="4" t="n">
         <v>0.00325077113462995</v>
       </c>
     </row>
@@ -2069,34 +2148,35 @@
       <c r="A53" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="3"/>
+      <c r="I53" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="J53" s="4" t="n">
         <v>0.0010805119964537</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="K53" s="4" t="n">
         <v>0.00301989250290907</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="L53" s="4" t="n">
         <v>0.00294601134075839</v>
       </c>
     </row>
@@ -2104,34 +2184,35 @@
       <c r="A54" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="3"/>
+      <c r="I54" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="J54" s="4" t="n">
         <v>0.00117286344914206</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="K54" s="4" t="n">
         <v>0.00311224395559742</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="L54" s="4" t="n">
         <v>0.0023180214624776</v>
       </c>
     </row>
@@ -2139,34 +2220,35 @@
       <c r="A55" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="3"/>
+      <c r="I55" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="J55" s="4" t="n">
         <v>0.00124674461129274</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="K55" s="4" t="n">
         <v>0.0031861251177481</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="L55" s="4" t="n">
         <v>0.00177314789161634</v>
       </c>
     </row>
@@ -2174,34 +2256,35 @@
       <c r="A56" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F56" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="J56" s="4" t="n">
         <v>0.00128368519236808</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="K56" s="4" t="n">
         <v>0.00322306569882344</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="L56" s="4" t="n">
         <v>0.00138527179032526</v>
       </c>
     </row>
@@ -2209,34 +2292,35 @@
       <c r="A57" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F57" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="G57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="J57" s="4" t="n">
         <v>0.00129292033763691</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="K57" s="4" t="n">
         <v>0.00324153598936111</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="L57" s="4" t="n">
         <v>0.00133909606398109</v>
       </c>
     </row>
@@ -2244,34 +2328,35 @@
       <c r="A58" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F58" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="G58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3"/>
+      <c r="I58" s="4" t="n">
         <v>2.77054358065052E-005</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="J58" s="4" t="n">
         <v>0.00126521490183041</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="K58" s="4" t="n">
         <v>0.00324153598936111</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="L58" s="4" t="n">
         <v>0.0013945069355941</v>
       </c>
     </row>
@@ -2279,34 +2364,35 @@
       <c r="A59" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="3"/>
+      <c r="I59" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="J59" s="4" t="n">
         <v>0.00125597975656157</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="K59" s="4" t="n">
         <v>0.00326000627989878</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="L59" s="4" t="n">
         <v>0.00155150440516429</v>
       </c>
     </row>
@@ -2314,34 +2400,35 @@
       <c r="A60" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F60" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="G60" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3"/>
+      <c r="I60" s="4" t="n">
         <v>3.69405810753403E-005</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="J60" s="4" t="n">
         <v>0.00125597975656157</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="K60" s="4" t="n">
         <v>0.00327847657043645</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="L60" s="4" t="n">
         <v>0.00166232614839031</v>
       </c>
     </row>
@@ -2349,34 +2436,35 @@
       <c r="A61" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="3"/>
+      <c r="I61" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="J61" s="4" t="n">
         <v>0.00126521490183041</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="K61" s="4" t="n">
         <v>0.00330618200624296</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="L61" s="4" t="n">
         <v>0.00188396963484236</v>
       </c>
     </row>
@@ -2384,34 +2472,35 @@
       <c r="A62" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F62" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="G62" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="3"/>
+      <c r="I62" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="J62" s="4" t="n">
         <v>0.00124674461129274</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="K62" s="4" t="n">
         <v>0.00332465229678063</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="L62" s="4" t="n">
         <v>0.00208714283075673</v>
       </c>
     </row>
@@ -2419,34 +2508,35 @@
       <c r="A63" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F63" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="G63" s="1" t="n">
+      <c r="G63" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="3"/>
+      <c r="I63" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="J63" s="4" t="n">
         <v>0.00119133373967973</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="K63" s="4" t="n">
         <v>0.00335235773258713</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="L63" s="4" t="n">
         <v>0.00228108088140226</v>
       </c>
     </row>
@@ -2454,34 +2544,35 @@
       <c r="A64" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F64" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="G64" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="3"/>
+      <c r="I64" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="J64" s="4" t="n">
         <v>0.00115439315860438</v>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="K64" s="4" t="n">
         <v>0.00338929831366247</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="L64" s="4" t="n">
         <v>0.00233649175301527</v>
       </c>
     </row>
@@ -2489,34 +2580,35 @@
       <c r="A65" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F65" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="G65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="3"/>
+      <c r="I65" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="J65" s="4" t="n">
         <v>0.00112668772279788</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="K65" s="4" t="n">
         <v>0.00341700374946898</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="L65" s="4" t="n">
         <v>0.0022903160266711</v>
       </c>
     </row>
@@ -2524,34 +2616,35 @@
       <c r="A66" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F66" s="1" t="n">
+      <c r="F66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="3"/>
+      <c r="I66" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="J66" s="4" t="n">
         <v>0.00114515801333555</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="K66" s="4" t="n">
         <v>0.00345394433054432</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="L66" s="4" t="n">
         <v>0.00225337544559576</v>
       </c>
     </row>
@@ -2559,34 +2652,35 @@
       <c r="A67" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F67" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="G67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="3"/>
+      <c r="I67" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="J67" s="4" t="n">
         <v>0.00111745257752904</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="K67" s="4" t="n">
         <v>0.00349088491161966</v>
       </c>
-      <c r="K67" s="2" t="n">
+      <c r="L67" s="4" t="n">
         <v>0.00221643486452042</v>
       </c>
     </row>
@@ -2594,34 +2688,35 @@
       <c r="A68" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F68" s="1" t="n">
+      <c r="F68" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="3"/>
+      <c r="I68" s="4" t="n">
         <v>0.000110821743226021</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="J68" s="4" t="n">
         <v>0.00107127685118487</v>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="K68" s="4" t="n">
         <v>0.003527825492695</v>
       </c>
-      <c r="K68" s="2" t="n">
+      <c r="L68" s="4" t="n">
         <v>0.00211484826656323</v>
       </c>
     </row>
@@ -2629,34 +2724,35 @@
       <c r="A69" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="F69" s="1" t="n">
+      <c r="F69" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="G69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="3"/>
+      <c r="I69" s="4" t="n">
         <v>0.000147762324301361</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="J69" s="4" t="n">
         <v>0.000951219962690013</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="K69" s="4" t="n">
         <v>0.00354629578323267</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="L69" s="4" t="n">
         <v>0.00202249681387488</v>
       </c>
     </row>
@@ -2664,34 +2760,35 @@
       <c r="A70" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="1" t="n">
+      <c r="F70" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="G70" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="3"/>
+      <c r="I70" s="4" t="n">
         <v>0.000129292033763691</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="J70" s="4" t="n">
         <v>0.000840398219463992</v>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="K70" s="4" t="n">
         <v>0.00355553092850151</v>
       </c>
-      <c r="K70" s="2" t="n">
+      <c r="L70" s="4" t="n">
         <v>0.0019486156517242</v>
       </c>
     </row>
@@ -2699,34 +2796,35 @@
       <c r="A71" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="F71" s="1" t="n">
+      <c r="F71" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G71" s="1" t="n">
+      <c r="G71" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="3"/>
+      <c r="I71" s="4" t="n">
         <v>0.000156997469570196</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="J71" s="4" t="n">
         <v>0.000794222493119817</v>
       </c>
-      <c r="J71" s="2" t="n">
+      <c r="K71" s="4" t="n">
         <v>0.00361094180011452</v>
       </c>
-      <c r="K71" s="2" t="n">
+      <c r="L71" s="4" t="n">
         <v>0.00173620731054099</v>
       </c>
     </row>
@@ -2734,34 +2832,35 @@
       <c r="A72" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F72" s="1" t="n">
+      <c r="F72" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G72" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="3"/>
+      <c r="I72" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="J72" s="4" t="n">
         <v>0.000812692783657487</v>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="K72" s="4" t="n">
         <v>0.00366635267172753</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="L72" s="4" t="n">
         <v>0.00163462071258381</v>
       </c>
     </row>
@@ -2769,34 +2868,35 @@
       <c r="A73" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="F73" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="1" t="n">
+      <c r="G73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="3"/>
+      <c r="I73" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="J73" s="4" t="n">
         <v>0.000849633364732827</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="K73" s="4" t="n">
         <v>0.00373099868860937</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="L73" s="4" t="n">
         <v>0.00152379896935779</v>
       </c>
     </row>
@@ -2804,34 +2904,35 @@
       <c r="A74" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>-15</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C74" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="F74" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="G74" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="3"/>
+      <c r="I74" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="J74" s="4" t="n">
         <v>0.000840398219463992</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="K74" s="4" t="n">
         <v>0.00374946897914704</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="L74" s="4" t="n">
         <v>0.00177314789161634</v>
       </c>
     </row>
@@ -2839,34 +2940,35 @@
       <c r="A75" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="C75" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="F75" s="1" t="n">
+      <c r="F75" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G75" s="1" t="n">
+      <c r="G75" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="3"/>
+      <c r="I75" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="J75" s="4" t="n">
         <v>0.000858868510001662</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="K75" s="4" t="n">
         <v>0.00379564470549122</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="L75" s="4" t="n">
         <v>0.00203173195914372</v>
       </c>
     </row>
@@ -2874,34 +2976,35 @@
       <c r="A76" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C76" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="F76" s="1" t="n">
+      <c r="F76" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G76" s="1" t="n">
+      <c r="G76" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="3"/>
+      <c r="I76" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="J76" s="4" t="n">
         <v>0.000877338800539333</v>
       </c>
-      <c r="J76" s="2" t="n">
+      <c r="K76" s="4" t="n">
         <v>0.00381411499602889</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="L76" s="4" t="n">
         <v>0.00227184573613343</v>
       </c>
     </row>
@@ -2909,34 +3012,35 @@
       <c r="A77" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="C77" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G77" s="1" t="n">
+      <c r="G77" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="3"/>
+      <c r="I77" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="J77" s="4" t="n">
         <v>0.000951219962690013</v>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="K77" s="4" t="n">
         <v>0.00388799615817957</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="L77" s="4" t="n">
         <v>0.00241037291516596</v>
       </c>
     </row>
@@ -2944,34 +3048,35 @@
       <c r="A78" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="C78" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="F78" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="G78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="3"/>
+      <c r="I78" s="4" t="n">
         <v>4.61757263441754E-005</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="J78" s="4" t="n">
         <v>0.000988160543765353</v>
       </c>
-      <c r="J78" s="2" t="n">
+      <c r="K78" s="4" t="n">
         <v>0.00392493673925491</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="L78" s="4" t="n">
         <v>0.00253966494892965</v>
       </c>
     </row>
@@ -2979,34 +3084,35 @@
       <c r="A79" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="C79" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F79" s="1" t="n">
+      <c r="F79" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="G79" s="1" t="n">
+      <c r="G79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="3"/>
+      <c r="I79" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="J79" s="4" t="n">
         <v>0.00106204170591603</v>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="K79" s="4" t="n">
         <v>0.00399881790140559</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="L79" s="4" t="n">
         <v>0.00277977872591936</v>
       </c>
     </row>
@@ -3014,34 +3120,35 @@
       <c r="A80" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="C80" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="F80" s="1" t="n">
+      <c r="F80" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G80" s="1" t="n">
+      <c r="G80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="3"/>
+      <c r="I80" s="4" t="n">
         <v>0.000175467760107866</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="J80" s="4" t="n">
         <v>0.00122827432075507</v>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="K80" s="4" t="n">
         <v>0.00418352080678229</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="L80" s="4" t="n">
         <v>0.00302912764817791</v>
       </c>
     </row>
@@ -3049,34 +3156,35 @@
       <c r="A81" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="C81" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="E81" s="1" t="n">
+      <c r="E81" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="F81" s="1" t="n">
+      <c r="F81" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="G81" s="1" t="n">
+      <c r="G81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="3"/>
+      <c r="I81" s="4" t="n">
         <v>0.000184702905376702</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="J81" s="4" t="n">
         <v>0.00137603664505643</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="K81" s="4" t="n">
         <v>0.00434975342162132</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="L81" s="4" t="n">
         <v>0.00311224395559742</v>
       </c>
     </row>
@@ -3084,34 +3192,35 @@
       <c r="A82" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="C82" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D82" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E82" s="1" t="n">
+      <c r="E82" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="F82" s="1" t="n">
+      <c r="F82" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G82" s="1" t="n">
+      <c r="G82" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="3"/>
+      <c r="I82" s="4" t="n">
         <v>0.000147762324301361</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="J82" s="4" t="n">
         <v>0.00150532867882012</v>
       </c>
-      <c r="J82" s="2" t="n">
+      <c r="K82" s="4" t="n">
         <v>0.00449751574592268</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="L82" s="4" t="n">
         <v>0.00322306569882344</v>
       </c>
     </row>
@@ -3119,34 +3228,35 @@
       <c r="A83" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="C83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E83" s="1" t="n">
+      <c r="E83" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="F83" s="1" t="n">
+      <c r="F83" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G83" s="1" t="n">
+      <c r="G83" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="3"/>
+      <c r="I83" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="J83" s="4" t="n">
         <v>0.00164385585785264</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="K83" s="4" t="n">
         <v>0.00464527807022404</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="L83" s="4" t="n">
         <v>0.00343547404000665</v>
       </c>
     </row>
@@ -3154,34 +3264,35 @@
       <c r="A84" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="C84" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="E84" s="1" t="n">
+      <c r="E84" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="F84" s="1" t="n">
+      <c r="F84" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="G84" s="1" t="n">
+      <c r="G84" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="3"/>
+      <c r="I84" s="4" t="n">
         <v>7.38811621506806E-005</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="J84" s="4" t="n">
         <v>0.00173620731054099</v>
       </c>
-      <c r="J84" s="2" t="n">
+      <c r="K84" s="4" t="n">
         <v>0.00474686466818123</v>
       </c>
-      <c r="K84" s="2" t="n">
+      <c r="L84" s="4" t="n">
         <v>0.00356476607377034</v>
       </c>
     </row>
@@ -3189,34 +3300,35 @@
       <c r="A85" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="C85" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="E85" s="1" t="n">
+      <c r="E85" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F85" s="1" t="n">
+      <c r="F85" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="G85" s="1" t="n">
+      <c r="G85" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="3"/>
+      <c r="I85" s="4" t="n">
         <v>6.46460168818456E-005</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="J85" s="4" t="n">
         <v>0.00179161818215401</v>
       </c>
-      <c r="J85" s="2" t="n">
+      <c r="K85" s="4" t="n">
         <v>0.00481151068506308</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="L85" s="4" t="n">
         <v>0.00359247150957685</v>
       </c>
     </row>
@@ -3224,34 +3336,35 @@
       <c r="A86" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="C86" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="E86" s="1" t="n">
+      <c r="E86" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="F86" s="1" t="n">
+      <c r="F86" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G86" s="1" t="n">
+      <c r="G86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="3"/>
+      <c r="I86" s="4" t="n">
         <v>5.54108716130105E-005</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="J86" s="4" t="n">
         <v>0.00187473448957352</v>
       </c>
-      <c r="J86" s="2" t="n">
+      <c r="K86" s="4" t="n">
         <v>0.00489462699248259</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="L86" s="4" t="n">
         <v>0.0033431225873183</v>
       </c>
     </row>
@@ -3259,34 +3372,35 @@
       <c r="A87" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="C87" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E87" s="1" t="n">
+      <c r="E87" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="F87" s="1" t="n">
+      <c r="F87" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G87" s="1" t="n">
+      <c r="G87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H87" s="2" t="n">
+      <c r="H87" s="3"/>
+      <c r="I87" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="J87" s="4" t="n">
         <v>0.00193014536118653</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="K87" s="4" t="n">
         <v>0.00495927300936444</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="L87" s="4" t="n">
         <v>0.00338006316839364</v>
       </c>
     </row>
@@ -3294,34 +3408,35 @@
       <c r="A88" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>-15</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="C88" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="D88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E88" s="1" t="n">
+      <c r="E88" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="F88" s="1" t="n">
+      <c r="F88" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="G88" s="1" t="n">
+      <c r="G88" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="3"/>
+      <c r="I88" s="4" t="n">
         <v>9.23514526883508E-005</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="J88" s="4" t="n">
         <v>0.00200402652333721</v>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="K88" s="4" t="n">
         <v>0.00504238931678395</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="L88" s="4" t="n">
         <v>0.00342623889473781</v>
       </c>
     </row>
@@ -3329,34 +3444,35 @@
       <c r="A89" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="C89" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E89" s="1" t="n">
+      <c r="E89" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="F89" s="1" t="n">
+      <c r="F89" s="2" t="n">
         <v>-24</v>
       </c>
-      <c r="G89" s="1" t="n">
+      <c r="G89" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H89" s="2" t="n">
+      <c r="H89" s="3"/>
+      <c r="I89" s="4" t="n">
         <v>0.000166232614839031</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="J89" s="4" t="n">
         <v>0.00196708594226187</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="K89" s="4" t="n">
         <v>0.00511627047893463</v>
       </c>
-      <c r="K89" s="2" t="n">
+      <c r="L89" s="4" t="n">
         <v>0.00354629578323267</v>
       </c>
     </row>
@@ -3364,34 +3480,35 @@
       <c r="A90" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="C90" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="E90" s="1" t="n">
+      <c r="E90" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="F90" s="1" t="n">
+      <c r="F90" s="2" t="n">
         <v>-38</v>
       </c>
-      <c r="G90" s="1" t="n">
+      <c r="G90" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="3"/>
+      <c r="I90" s="4" t="n">
         <v>0.000138527179032526</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="J90" s="4" t="n">
         <v>0.00188396963484236</v>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="K90" s="4" t="n">
         <v>0.0051347407694723</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="L90" s="4" t="n">
         <v>0.00299218706710257</v>
       </c>
     </row>
@@ -3399,34 +3516,35 @@
       <c r="A91" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="C91" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="E91" s="1" t="n">
+      <c r="E91" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F91" s="1" t="n">
+      <c r="F91" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="G91" s="1" t="n">
+      <c r="G91" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H91" s="2" t="n">
+      <c r="H91" s="3"/>
+      <c r="I91" s="4" t="n">
         <v>0.000138527179032526</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="J91" s="4" t="n">
         <v>0.00180085332742284</v>
       </c>
-      <c r="J91" s="2" t="n">
+      <c r="K91" s="4" t="n">
         <v>0.00515321106000997</v>
       </c>
-      <c r="K91" s="2" t="n">
+      <c r="L91" s="4" t="n">
         <v>0.00242884320570363</v>
       </c>
     </row>
@@ -3434,34 +3552,35 @@
       <c r="A92" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="C92" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="E92" s="1" t="n">
+      <c r="E92" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F92" s="1" t="n">
+      <c r="F92" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="G92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="3"/>
+      <c r="I92" s="4" t="n">
         <v>8.31163074195157E-005</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="J92" s="4" t="n">
         <v>0.00186549934430469</v>
       </c>
-      <c r="J92" s="2" t="n">
+      <c r="K92" s="4" t="n">
         <v>0.00521785707689182</v>
       </c>
-      <c r="K92" s="2" t="n">
+      <c r="L92" s="4" t="n">
         <v>0.00193014536118653</v>
       </c>
     </row>
@@ -3469,34 +3588,35 @@
       <c r="A93" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="C93" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="E93" s="1" t="n">
+      <c r="E93" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F93" s="1" t="n">
+      <c r="F93" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="G93" s="1" t="n">
+      <c r="G93" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H93" s="2" t="n">
+      <c r="H93" s="3"/>
+      <c r="I93" s="4" t="n">
         <v>0.000203173195914372</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="J93" s="4" t="n">
         <v>0.00183779390849818</v>
       </c>
-      <c r="J93" s="2" t="n">
+      <c r="K93" s="4" t="n">
         <v>0.00530097338431134</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="L93" s="4" t="n">
         <v>0.00212408341183207</v>
       </c>
     </row>
@@ -3504,34 +3624,35 @@
       <c r="A94" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="C94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="E94" s="1" t="n">
+      <c r="E94" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F94" s="1" t="n">
+      <c r="F94" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="G94" s="1" t="n">
+      <c r="G94" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H94" s="2" t="n">
+      <c r="H94" s="3"/>
+      <c r="I94" s="4" t="n">
         <v>0.000258584067527382</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="J94" s="4" t="n">
         <v>0.00185626419903585</v>
       </c>
-      <c r="J94" s="2" t="n">
+      <c r="K94" s="4" t="n">
         <v>0.00543950056334386</v>
       </c>
-      <c r="K94" s="2" t="n">
+      <c r="L94" s="4" t="n">
         <v>0.00222567000978925</v>
       </c>
     </row>
@@ -3539,34 +3660,35 @@
       <c r="A95" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="C95" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D95" s="1" t="n">
+      <c r="D95" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="E95" s="1" t="n">
+      <c r="E95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="n">
+      <c r="F95" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="G95" s="1" t="n">
+      <c r="G95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H95" s="2" t="n">
+      <c r="H95" s="3"/>
+      <c r="I95" s="4" t="n">
         <v>0.000526403280323599</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="J95" s="4" t="n">
         <v>0.0016069152767773</v>
       </c>
-      <c r="J95" s="2" t="n">
+      <c r="K95" s="4" t="n">
         <v>0.00557802774237639</v>
       </c>
-      <c r="K95" s="2" t="n">
+      <c r="L95" s="4" t="n">
         <v>0.00236419718882178</v>
       </c>
     </row>
@@ -3574,34 +3696,35 @@
       <c r="A96" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C96" s="1" t="n">
+      <c r="C96" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="E96" s="1" t="n">
+      <c r="E96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F96" s="1" t="n">
+      <c r="F96" s="2" t="n">
         <v>-24</v>
       </c>
-      <c r="G96" s="1" t="n">
+      <c r="G96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H96" s="2" t="n">
+      <c r="H96" s="3"/>
+      <c r="I96" s="4" t="n">
         <v>0.000406346391828744</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="J96" s="4" t="n">
         <v>0.00145915295247594</v>
       </c>
-      <c r="J96" s="2" t="n">
+      <c r="K96" s="4" t="n">
         <v>0.00570731977614008</v>
       </c>
-      <c r="K96" s="2" t="n">
+      <c r="L96" s="4" t="n">
         <v>0.0022903160266711</v>
       </c>
     </row>
@@ -3609,34 +3732,35 @@
       <c r="A97" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C97" s="1" t="n">
+      <c r="C97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D97" s="1" t="n">
+      <c r="D97" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="E97" s="1" t="n">
+      <c r="E97" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F97" s="1" t="n">
+      <c r="F97" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="G97" s="1" t="n">
+      <c r="G97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H97" s="2" t="n">
+      <c r="H97" s="3"/>
+      <c r="I97" s="4" t="n">
         <v>0.000350935520215733</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="J97" s="4" t="n">
         <v>0.00127445004709924</v>
       </c>
-      <c r="J97" s="2" t="n">
+      <c r="K97" s="4" t="n">
         <v>0.00579043608355959</v>
       </c>
-      <c r="K97" s="2" t="n">
+      <c r="L97" s="4" t="n">
         <v>0.00226261059086459</v>
       </c>
     </row>
@@ -3644,34 +3768,35 @@
       <c r="A98" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="C98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D98" s="1" t="n">
+      <c r="D98" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="E98" s="1" t="n">
+      <c r="E98" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="F98" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="G98" s="1" t="n">
+      <c r="G98" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H98" s="2" t="n">
+      <c r="H98" s="3"/>
+      <c r="I98" s="4" t="n">
         <v>0.000101586597957186</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="J98" s="4" t="n">
         <v>0.00132986091871225</v>
       </c>
-      <c r="J98" s="2" t="n">
+      <c r="K98" s="4" t="n">
         <v>0.00585508210044144</v>
       </c>
-      <c r="K98" s="2" t="n">
+      <c r="L98" s="4" t="n">
         <v>0.00224414030032692</v>
       </c>
     </row>
@@ -3679,34 +3804,35 @@
       <c r="A99" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C99" s="1" t="n">
+      <c r="C99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D99" s="1" t="n">
+      <c r="D99" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="E99" s="1" t="n">
+      <c r="E99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F99" s="1" t="n">
+      <c r="F99" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G99" s="1" t="n">
+      <c r="G99" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H99" s="2" t="n">
+      <c r="H99" s="3"/>
+      <c r="I99" s="4" t="n">
         <v>0.000166232614839031</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="J99" s="4" t="n">
         <v>0.00145915295247594</v>
       </c>
-      <c r="J99" s="2" t="n">
+      <c r="K99" s="4" t="n">
         <v>0.0060028444247428</v>
       </c>
-      <c r="K99" s="2" t="n">
+      <c r="L99" s="4" t="n">
         <v>0.00245654864151013</v>
       </c>
     </row>
@@ -3714,34 +3840,35 @@
       <c r="A100" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="C100" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="D100" s="1" t="n">
+      <c r="D100" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="E100" s="1" t="n">
+      <c r="E100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F100" s="1" t="n">
+      <c r="F100" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="G100" s="1" t="n">
+      <c r="G100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H100" s="3"/>
+      <c r="I100" s="4" t="n">
         <v>0.000295524648602722</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="J100" s="4" t="n">
         <v>0.00163462071258381</v>
       </c>
-      <c r="J100" s="2" t="n">
+      <c r="K100" s="4" t="n">
         <v>0.00623372305646368</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="L100" s="4" t="n">
         <v>0.00273360299957518</v>
       </c>
     </row>
@@ -3749,34 +3876,35 @@
       <c r="A101" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="C101" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="D101" s="1" t="n">
+      <c r="D101" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="E101" s="1" t="n">
+      <c r="E101" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F101" s="1" t="n">
+      <c r="F101" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="G101" s="1" t="n">
+      <c r="G101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H101" s="3"/>
+      <c r="I101" s="4" t="n">
         <v>0.000350935520215733</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="J101" s="4" t="n">
         <v>0.00185626419903585</v>
       </c>
-      <c r="J101" s="2" t="n">
+      <c r="K101" s="4" t="n">
         <v>0.00653848285033524</v>
       </c>
-      <c r="K101" s="2" t="n">
+      <c r="L101" s="4" t="n">
         <v>0.00283518959753237</v>
       </c>
     </row>
@@ -3784,34 +3912,35 @@
       <c r="A102" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="C102" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="D102" s="1" t="n">
+      <c r="D102" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="E102" s="1" t="n">
+      <c r="E102" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F102" s="1" t="n">
+      <c r="F102" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="G102" s="1" t="n">
+      <c r="G102" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H102" s="2" t="n">
+      <c r="H102" s="3"/>
+      <c r="I102" s="4" t="n">
         <v>0.000461757263441754</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="J102" s="4" t="n">
         <v>0.00205943739495022</v>
       </c>
-      <c r="J102" s="2" t="n">
+      <c r="K102" s="4" t="n">
         <v>0.00683400749893796</v>
       </c>
-      <c r="K102" s="2" t="n">
+      <c r="L102" s="4" t="n">
         <v>0.00298295192183373</v>
       </c>
     </row>
@@ -3819,34 +3948,35 @@
       <c r="A103" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="C103" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D103" s="1" t="n">
+      <c r="D103" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="E103" s="1" t="n">
+      <c r="E103" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F103" s="1" t="n">
+      <c r="F103" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="G103" s="1" t="n">
+      <c r="G103" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H103" s="2" t="n">
+      <c r="H103" s="3"/>
+      <c r="I103" s="4" t="n">
         <v>0.000424816682366414</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="J103" s="4" t="n">
         <v>0.0023180214624776</v>
       </c>
-      <c r="J103" s="2" t="n">
+      <c r="K103" s="4" t="n">
         <v>0.00718494301915369</v>
       </c>
-      <c r="K103" s="2" t="n">
+      <c r="L103" s="4" t="n">
         <v>0.00312147910086626</v>
       </c>
     </row>
@@ -3854,34 +3984,35 @@
       <c r="A104" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="C104" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="D104" s="1" t="n">
+      <c r="D104" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="E104" s="1" t="n">
+      <c r="E104" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F104" s="1" t="n">
+      <c r="F104" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="G104" s="1" t="n">
+      <c r="G104" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H104" s="2" t="n">
+      <c r="H104" s="3"/>
+      <c r="I104" s="4" t="n">
         <v>0.000350935520215733</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="J104" s="4" t="n">
         <v>0.00250272436785431</v>
       </c>
-      <c r="J104" s="2" t="n">
+      <c r="K104" s="4" t="n">
         <v>0.00745276223194991</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="L104" s="4" t="n">
         <v>0.00329694686097412</v>
       </c>
     </row>
@@ -3889,34 +4020,35 @@
       <c r="A105" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="C105" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D105" s="1" t="n">
+      <c r="D105" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="E105" s="1" t="n">
+      <c r="E105" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F105" s="1" t="n">
+      <c r="F105" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="G105" s="1" t="n">
+      <c r="G105" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H105" s="2" t="n">
+      <c r="H105" s="3"/>
+      <c r="I105" s="4" t="n">
         <v>0.000240113776989712</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="J105" s="4" t="n">
         <v>0.00265048669215567</v>
       </c>
-      <c r="J105" s="2" t="n">
+      <c r="K105" s="4" t="n">
         <v>0.00766517057313312</v>
       </c>
-      <c r="K105" s="2" t="n">
+      <c r="L105" s="4" t="n">
         <v>0.00339853345893131</v>
       </c>
     </row>
@@ -3924,34 +4056,35 @@
       <c r="A106" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="C106" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="D106" s="1" t="n">
+      <c r="D106" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="E106" s="1" t="n">
+      <c r="E106" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F106" s="1" t="n">
+      <c r="F106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G106" s="1" t="n">
+      <c r="G106" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H106" s="3"/>
+      <c r="I106" s="4" t="n">
         <v>0.000304759793871558</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="J106" s="4" t="n">
         <v>0.00286289503333887</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="K106" s="4" t="n">
         <v>0.00793298978592933</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="L106" s="4" t="n">
         <v>0.00378640956022238</v>
       </c>
     </row>
@@ -3959,628 +4092,38 @@
       <c r="A107" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="C107" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="D107" s="1" t="n">
+      <c r="D107" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E107" s="1" t="n">
+      <c r="E107" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F107" s="1" t="n">
+      <c r="F107" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="G107" s="1" t="n">
+      <c r="G107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="3"/>
+      <c r="I107" s="4" t="n">
         <v>0.000424816682366414</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="J107" s="4" t="n">
         <v>0.00311224395559742</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="K107" s="4" t="n">
         <v>0.00824698472506972</v>
       </c>
-      <c r="K107" s="2" t="n">
+      <c r="L107" s="4" t="n">
         <v>0.00413734508043812</v>
       </c>
     </row>
-    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/academycity/data/covid/datasets/excel/raw_data/Covid.xlsx
+++ b/academycity/data/covid/datasets/excel/raw_data/Covid.xlsx
@@ -257,11 +257,11 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.03"/>
@@ -332,16 +332,16 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.000498697844517094</v>
+        <v>498.697844517094</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.00181932361796051</v>
+        <v>1819.32361796051</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.000230878631720877</v>
+        <v>230.878631720877</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,16 +368,16 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.000692635895162631</v>
+        <v>692.635895162631</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.00182855876322935</v>
+        <v>1828.55876322935</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,16 +404,16 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.000905044236345838</v>
+        <v>905.044236345838</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.00182855876322935</v>
+        <v>1828.55876322935</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,16 +440,16 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.000877338800539333</v>
+        <v>877.338800539333</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.00182855876322935</v>
+        <v>1828.55876322935</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,16 +476,16 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.000803457638388652</v>
+        <v>803.457638388652</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.00188396963484236</v>
+        <v>1883.96963484236</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.000129292033763691</v>
+        <v>129.292033763691</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,16 +512,16 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="n">
-        <v>0.000120056888494856</v>
+        <v>120.056888494856</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.000757281912044476</v>
+        <v>757.281912044476</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.0019209102159177</v>
+        <v>1920.9102159177</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.000129292033763691</v>
+        <v>129.292033763691</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,16 +548,16 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.000692635895162631</v>
+        <v>692.635895162631</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.00193014536118653</v>
+        <v>1930.14536118653</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.000129292033763691</v>
+        <v>129.292033763691</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,16 +584,16 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.000646460168818456</v>
+        <v>646.460168818456</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.00193938050645537</v>
+        <v>1939.38050645537</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,16 +620,16 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.00060028444247428</v>
+        <v>600.28444247428</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.00193938050645537</v>
+        <v>1939.38050645537</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,16 +656,16 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0.000572579006667775</v>
+        <v>572.579006667775</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.00193938050645537</v>
+        <v>1939.38050645537</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,16 +692,16 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>0.000554108716130105</v>
+        <v>554.108716130105</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0.00196708594226187</v>
+        <v>1967.08594226187</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>0.000230878631720877</v>
+        <v>230.878631720877</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,16 +728,16 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>0.000517168135054764</v>
+        <v>517.168135054764</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>0.00198555623279954</v>
+        <v>1985.55623279954</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>0.000415581537097579</v>
+        <v>415.581537097579</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,16 +764,16 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>0.000480227553979424</v>
+        <v>480.227553979424</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>0.00200402652333721</v>
+        <v>2004.02652333721</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>0.000572579006667775</v>
+        <v>572.579006667775</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,16 +800,16 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>0.000443286972904084</v>
+        <v>443.286972904084</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>0.00200402652333721</v>
+        <v>2004.02652333721</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>0.000664930459356126</v>
+        <v>664.930459356126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,16 +836,16 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="4" t="n">
-        <v>9.23514526883508E-006</v>
+        <v>9.23514526883508</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.000434051827635249</v>
+        <v>434.051827635249</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.00200402652333721</v>
+        <v>2004.02652333721</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0.000674165604624961</v>
+        <v>674.165604624961</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.000415581537097579</v>
+        <v>415.581537097579</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.000683400749893796</v>
+        <v>683.400749893796</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,16 +908,16 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.000387876101291073</v>
+        <v>387.876101291073</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.00058181415193661</v>
+        <v>581.81415193661</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,16 +944,16 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>0.000369405810753403</v>
+        <v>369.405810753403</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>0.000526403280323599</v>
+        <v>526.403280323599</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,16 +980,16 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>0.000350935520215733</v>
+        <v>350.935520215733</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0.000406346391828744</v>
+        <v>406.346391828744</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,16 +1016,16 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="n">
-        <v>9.23514526883508E-006</v>
+        <v>9.23514526883508</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.000341700374946898</v>
+        <v>341.700374946898</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>0.000350935520215733</v>
+        <v>350.935520215733</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,16 +1052,16 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>0.000323230084409228</v>
+        <v>323.230084409228</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0.000304759793871558</v>
+        <v>304.759793871558</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,16 +1088,16 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4" t="n">
-        <v>9.23514526883508E-006</v>
+        <v>9.23514526883508</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>0.000313994939140393</v>
+        <v>313.994939140393</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0.000323230084409228</v>
+        <v>323.230084409228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,16 +1124,16 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>0.000286289503333887</v>
+        <v>286.289503333887</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>0.000304759793871558</v>
+        <v>304.759793871558</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,16 +1160,16 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,16 +1196,16 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>0.000230878631720877</v>
+        <v>230.878631720877</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,16 +1232,16 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>0.000212408341183207</v>
+        <v>212.408341183207</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,16 +1268,16 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>0.000175467760107866</v>
+        <v>175.467760107866</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>0.000295524648602722</v>
+        <v>295.524648602722</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,16 +1304,16 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>0.000138527179032526</v>
+        <v>138.527179032526</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>0.000332465229678063</v>
+        <v>332.465229678063</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,16 +1340,16 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>0.000323230084409228</v>
+        <v>323.230084409228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,16 +1376,16 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>0.000295524648602722</v>
+        <v>295.524648602722</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,16 +1412,16 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,16 +1448,16 @@
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>0.000286289503333887</v>
+        <v>286.289503333887</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.000313994939140393</v>
+        <v>313.994939140393</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,16 +1700,16 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="4" t="n">
-        <v>9.23514526883508E-006</v>
+        <v>9.23514526883508</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0.00200402652333721</v>
+        <v>2004.02652333721</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0.000729576476237971</v>
+        <v>729.576476237971</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,16 +1736,16 @@
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.00204096710441255</v>
+        <v>2040.96710441255</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.00132986091871225</v>
+        <v>1329.86091871225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,16 +1772,16 @@
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0.000156997469570196</v>
+        <v>156.997469570196</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.00209637797602556</v>
+        <v>2096.37797602556</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.00199479137806838</v>
+        <v>1994.79137806838</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,16 +1808,16 @@
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0.000212408341183207</v>
+        <v>212.408341183207</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0.00215178884763857</v>
+        <v>2151.78884763857</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>0.00228108088140226</v>
+        <v>2281.08088140226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,16 +1844,16 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.000249348922258547</v>
+        <v>249.348922258547</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0.00218872942871391</v>
+        <v>2188.72942871391</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.00243807835097246</v>
+        <v>2438.07835097246</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1880,16 @@
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="4" t="n">
-        <v>1.84702905376702E-005</v>
+        <v>18.4702905376702</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0.000267819212796217</v>
+        <v>267.819212796217</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0.00220719971925158</v>
+        <v>2207.19971925158</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0.00261354611108033</v>
+        <v>2613.54611108033</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,16 +1916,16 @@
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="4" t="n">
-        <v>0.000129292033763691</v>
+        <v>129.292033763691</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.000397111246559908</v>
+        <v>397.111246559908</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0.00233649175301527</v>
+        <v>2336.49175301527</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.00291830590495188</v>
+        <v>2918.30590495188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,16 +1952,16 @@
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="4" t="n">
-        <v>0.000120056888494856</v>
+        <v>120.056888494856</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>0.000517168135054764</v>
+        <v>517.168135054764</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0.00245654864151013</v>
+        <v>2456.54864151013</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.0031584196819416</v>
+        <v>3158.4196819416</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,16 +1988,16 @@
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="4" t="n">
-        <v>0.000166232614839031</v>
+        <v>166.232614839031</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>0.000683400749893796</v>
+        <v>683.400749893796</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0.00262278125634916</v>
+        <v>2622.78125634916</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.00330618200624296</v>
+        <v>3306.18200624296</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,16 +2024,16 @@
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.000738811621506806</v>
+        <v>738.811621506806</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0.00267819212796217</v>
+        <v>2678.19212796217</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.00340776860420014</v>
+        <v>3407.76860420014</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,16 +2060,16 @@
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.000840398219463992</v>
+        <v>840.398219463992</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.00277977872591936</v>
+        <v>2779.77872591936</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.00345394433054432</v>
+        <v>3453.94433054432</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,16 +2096,16 @@
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.000905044236345838</v>
+        <v>905.044236345838</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0.0028444247428012</v>
+        <v>2844.4247428012</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>0.00348164976635082</v>
+        <v>3481.64976635082</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,16 +2132,16 @@
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>0.000997395689034189</v>
+        <v>997.395689034189</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>0.00293677619548956</v>
+        <v>2936.77619548956</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>0.00325077113462995</v>
+        <v>3250.77113462995</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,16 +2168,16 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>0.0010805119964537</v>
+        <v>1080.5119964537</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>0.00301989250290907</v>
+        <v>3019.89250290907</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>0.00294601134075839</v>
+        <v>2946.01134075839</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,16 +2204,16 @@
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>0.00117286344914206</v>
+        <v>1172.86344914206</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>0.00311224395559742</v>
+        <v>3112.24395559742</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>0.0023180214624776</v>
+        <v>2318.0214624776</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,16 +2240,16 @@
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>0.00124674461129274</v>
+        <v>1246.74461129274</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>0.0031861251177481</v>
+        <v>3186.1251177481</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>0.00177314789161634</v>
+        <v>1773.14789161634</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,16 +2276,16 @@
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>0.00128368519236808</v>
+        <v>1283.68519236808</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>0.00322306569882344</v>
+        <v>3223.06569882344</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>0.00138527179032526</v>
+        <v>1385.27179032526</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,16 +2312,16 @@
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>0.00129292033763691</v>
+        <v>1292.92033763691</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>0.00324153598936111</v>
+        <v>3241.53598936111</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>0.00133909606398109</v>
+        <v>1339.09606398109</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,16 +2348,16 @@
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="4" t="n">
-        <v>2.77054358065052E-005</v>
+        <v>27.7054358065052</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>0.00126521490183041</v>
+        <v>1265.21490183041</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>0.00324153598936111</v>
+        <v>3241.53598936111</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>0.0013945069355941</v>
+        <v>1394.5069355941</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,16 +2384,16 @@
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>0.00125597975656157</v>
+        <v>1255.97975656157</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>0.00326000627989878</v>
+        <v>3260.00627989878</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>0.00155150440516429</v>
+        <v>1551.50440516429</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,16 +2420,16 @@
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="4" t="n">
-        <v>3.69405810753403E-005</v>
+        <v>36.9405810753403</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>0.00125597975656157</v>
+        <v>1255.97975656157</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>0.00327847657043645</v>
+        <v>3278.47657043645</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>0.00166232614839031</v>
+        <v>1662.32614839031</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,16 +2456,16 @@
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>0.00126521490183041</v>
+        <v>1265.21490183041</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>0.00330618200624296</v>
+        <v>3306.18200624296</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>0.00188396963484236</v>
+        <v>1883.96963484236</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,16 +2492,16 @@
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>0.00124674461129274</v>
+        <v>1246.74461129274</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>0.00332465229678063</v>
+        <v>3324.65229678063</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>0.00208714283075673</v>
+        <v>2087.14283075673</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,16 +2528,16 @@
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>0.00119133373967973</v>
+        <v>1191.33373967973</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>0.00335235773258713</v>
+        <v>3352.35773258713</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>0.00228108088140226</v>
+        <v>2281.08088140226</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,16 +2564,16 @@
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>0.00115439315860438</v>
+        <v>1154.39315860438</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>0.00338929831366247</v>
+        <v>3389.29831366247</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>0.00233649175301527</v>
+        <v>2336.49175301527</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,16 +2600,16 @@
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>0.00112668772279788</v>
+        <v>1126.68772279788</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>0.00341700374946898</v>
+        <v>3417.00374946898</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>0.0022903160266711</v>
+        <v>2290.3160266711</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,16 +2636,16 @@
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>0.00114515801333555</v>
+        <v>1145.15801333555</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>0.00345394433054432</v>
+        <v>3453.94433054432</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>0.00225337544559576</v>
+        <v>2253.37544559576</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,16 +2672,16 @@
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>0.00111745257752904</v>
+        <v>1117.45257752904</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>0.00349088491161966</v>
+        <v>3490.88491161966</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>0.00221643486452042</v>
+        <v>2216.43486452042</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,16 +2708,16 @@
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="4" t="n">
-        <v>0.000110821743226021</v>
+        <v>110.821743226021</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>0.00107127685118487</v>
+        <v>1071.27685118487</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>0.003527825492695</v>
+        <v>3527.825492695</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>0.00211484826656323</v>
+        <v>2114.84826656323</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,16 +2744,16 @@
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="4" t="n">
-        <v>0.000147762324301361</v>
+        <v>147.762324301361</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>0.000951219962690013</v>
+        <v>951.219962690013</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>0.00354629578323267</v>
+        <v>3546.29578323267</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>0.00202249681387488</v>
+        <v>2022.49681387488</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,16 +2780,16 @@
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="4" t="n">
-        <v>0.000129292033763691</v>
+        <v>129.292033763691</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>0.000840398219463992</v>
+        <v>840.398219463992</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>0.00355553092850151</v>
+        <v>3555.53092850151</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>0.0019486156517242</v>
+        <v>1948.6156517242</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,16 +2816,16 @@
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="4" t="n">
-        <v>0.000156997469570196</v>
+        <v>156.997469570196</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>0.000794222493119817</v>
+        <v>794.222493119817</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>0.00361094180011452</v>
+        <v>3610.94180011452</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>0.00173620731054099</v>
+        <v>1736.20731054099</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,16 +2852,16 @@
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>0.000812692783657487</v>
+        <v>812.692783657487</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>0.00366635267172753</v>
+        <v>3666.35267172753</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>0.00163462071258381</v>
+        <v>1634.62071258381</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,16 +2888,16 @@
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>0.000849633364732827</v>
+        <v>849.633364732827</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>0.00373099868860937</v>
+        <v>3730.99868860937</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>0.00152379896935779</v>
+        <v>1523.79896935779</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,16 +2924,16 @@
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>0.000840398219463992</v>
+        <v>840.398219463992</v>
       </c>
       <c r="K74" s="4" t="n">
-        <v>0.00374946897914704</v>
+        <v>3749.46897914704</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>0.00177314789161634</v>
+        <v>1773.14789161634</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,16 +2960,16 @@
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>0.000858868510001662</v>
+        <v>858.868510001662</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>0.00379564470549122</v>
+        <v>3795.64470549122</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>0.00203173195914372</v>
+        <v>2031.73195914372</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,16 +2996,16 @@
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>0.000877338800539333</v>
+        <v>877.338800539333</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>0.00381411499602889</v>
+        <v>3814.11499602889</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>0.00227184573613343</v>
+        <v>2271.84573613343</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,16 +3032,16 @@
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>0.000951219962690013</v>
+        <v>951.219962690013</v>
       </c>
       <c r="K77" s="4" t="n">
-        <v>0.00388799615817957</v>
+        <v>3887.99615817957</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>0.00241037291516596</v>
+        <v>2410.37291516596</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,16 +3068,16 @@
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="4" t="n">
-        <v>4.61757263441754E-005</v>
+        <v>46.1757263441754</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>0.000988160543765353</v>
+        <v>988.160543765353</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>0.00392493673925491</v>
+        <v>3924.93673925491</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>0.00253966494892965</v>
+        <v>2539.66494892965</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,16 +3104,16 @@
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>0.00106204170591603</v>
+        <v>1062.04170591603</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>0.00399881790140559</v>
+        <v>3998.81790140559</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>0.00277977872591936</v>
+        <v>2779.77872591936</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,16 +3140,16 @@
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="4" t="n">
-        <v>0.000175467760107866</v>
+        <v>175.467760107866</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>0.00122827432075507</v>
+        <v>1228.27432075507</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>0.00418352080678229</v>
+        <v>4183.52080678229</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>0.00302912764817791</v>
+        <v>3029.12764817791</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,16 +3176,16 @@
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="n">
-        <v>0.000184702905376702</v>
+        <v>184.702905376702</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>0.00137603664505643</v>
+        <v>1376.03664505643</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>0.00434975342162132</v>
+        <v>4349.75342162132</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>0.00311224395559742</v>
+        <v>3112.24395559742</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,16 +3212,16 @@
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="4" t="n">
-        <v>0.000147762324301361</v>
+        <v>147.762324301361</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>0.00150532867882012</v>
+        <v>1505.32867882012</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>0.00449751574592268</v>
+        <v>4497.51574592268</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>0.00322306569882344</v>
+        <v>3223.06569882344</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,16 +3248,16 @@
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>0.00164385585785264</v>
+        <v>1643.85585785264</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>0.00464527807022404</v>
+        <v>4645.27807022404</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>0.00343547404000665</v>
+        <v>3435.47404000665</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,16 +3284,16 @@
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="4" t="n">
-        <v>7.38811621506806E-005</v>
+        <v>73.8811621506806</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>0.00173620731054099</v>
+        <v>1736.20731054099</v>
       </c>
       <c r="K84" s="4" t="n">
-        <v>0.00474686466818123</v>
+        <v>4746.86466818123</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>0.00356476607377034</v>
+        <v>3564.76607377034</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,16 +3320,16 @@
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="4" t="n">
-        <v>6.46460168818456E-005</v>
+        <v>64.6460168818456</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>0.00179161818215401</v>
+        <v>1791.61818215401</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>0.00481151068506308</v>
+        <v>4811.51068506308</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>0.00359247150957685</v>
+        <v>3592.47150957685</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,16 +3356,16 @@
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="4" t="n">
-        <v>5.54108716130105E-005</v>
+        <v>55.4108716130105</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>0.00187473448957352</v>
+        <v>1874.73448957352</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>0.00489462699248259</v>
+        <v>4894.62699248259</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>0.0033431225873183</v>
+        <v>3343.1225873183</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,16 +3392,16 @@
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>0.00193014536118653</v>
+        <v>1930.14536118653</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>0.00495927300936444</v>
+        <v>4959.27300936444</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>0.00338006316839364</v>
+        <v>3380.06316839364</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,16 +3428,16 @@
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="n">
-        <v>9.23514526883508E-005</v>
+        <v>92.3514526883508</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>0.00200402652333721</v>
+        <v>2004.02652333721</v>
       </c>
       <c r="K88" s="4" t="n">
-        <v>0.00504238931678395</v>
+        <v>5042.38931678395</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>0.00342623889473781</v>
+        <v>3426.23889473781</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,16 +3464,16 @@
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="4" t="n">
-        <v>0.000166232614839031</v>
+        <v>166.232614839031</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>0.00196708594226187</v>
+        <v>1967.08594226187</v>
       </c>
       <c r="K89" s="4" t="n">
-        <v>0.00511627047893463</v>
+        <v>5116.27047893463</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>0.00354629578323267</v>
+        <v>3546.29578323267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,16 +3500,16 @@
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="4" t="n">
-        <v>0.000138527179032526</v>
+        <v>138.527179032526</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>0.00188396963484236</v>
+        <v>1883.96963484236</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>0.0051347407694723</v>
+        <v>5134.7407694723</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>0.00299218706710257</v>
+        <v>2992.18706710257</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,16 +3536,16 @@
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="4" t="n">
-        <v>0.000138527179032526</v>
+        <v>138.527179032526</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>0.00180085332742284</v>
+        <v>1800.85332742284</v>
       </c>
       <c r="K91" s="4" t="n">
-        <v>0.00515321106000997</v>
+        <v>5153.21106000997</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>0.00242884320570363</v>
+        <v>2428.84320570363</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,16 +3572,16 @@
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="4" t="n">
-        <v>8.31163074195157E-005</v>
+        <v>83.1163074195157</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>0.00186549934430469</v>
+        <v>1865.49934430469</v>
       </c>
       <c r="K92" s="4" t="n">
-        <v>0.00521785707689182</v>
+        <v>5217.85707689182</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>0.00193014536118653</v>
+        <v>1930.14536118653</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,16 +3608,16 @@
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="4" t="n">
-        <v>0.000203173195914372</v>
+        <v>203.173195914372</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>0.00183779390849818</v>
+        <v>1837.79390849818</v>
       </c>
       <c r="K93" s="4" t="n">
-        <v>0.00530097338431134</v>
+        <v>5300.97338431134</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>0.00212408341183207</v>
+        <v>2124.08341183207</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,16 +3644,16 @@
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="4" t="n">
-        <v>0.000258584067527382</v>
+        <v>258.584067527382</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>0.00185626419903585</v>
+        <v>1856.26419903585</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>0.00543950056334386</v>
+        <v>5439.50056334386</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>0.00222567000978925</v>
+        <v>2225.67000978925</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,16 +3680,16 @@
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="4" t="n">
-        <v>0.000526403280323599</v>
+        <v>526.403280323599</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>0.0016069152767773</v>
+        <v>1606.9152767773</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>0.00557802774237639</v>
+        <v>5578.02774237639</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>0.00236419718882178</v>
+        <v>2364.19718882178</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,16 +3716,16 @@
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="4" t="n">
-        <v>0.000406346391828744</v>
+        <v>406.346391828744</v>
       </c>
       <c r="J96" s="4" t="n">
-        <v>0.00145915295247594</v>
+        <v>1459.15295247594</v>
       </c>
       <c r="K96" s="4" t="n">
-        <v>0.00570731977614008</v>
+        <v>5707.31977614008</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>0.0022903160266711</v>
+        <v>2290.3160266711</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,16 +3752,16 @@
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="4" t="n">
-        <v>0.000350935520215733</v>
+        <v>350.935520215733</v>
       </c>
       <c r="J97" s="4" t="n">
-        <v>0.00127445004709924</v>
+        <v>1274.45004709924</v>
       </c>
       <c r="K97" s="4" t="n">
-        <v>0.00579043608355959</v>
+        <v>5790.43608355959</v>
       </c>
       <c r="L97" s="4" t="n">
-        <v>0.00226261059086459</v>
+        <v>2262.61059086459</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,16 +3788,16 @@
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="4" t="n">
-        <v>0.000101586597957186</v>
+        <v>101.586597957186</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>0.00132986091871225</v>
+        <v>1329.86091871225</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>0.00585508210044144</v>
+        <v>5855.08210044144</v>
       </c>
       <c r="L98" s="4" t="n">
-        <v>0.00224414030032692</v>
+        <v>2244.14030032692</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,16 +3824,16 @@
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="4" t="n">
-        <v>0.000166232614839031</v>
+        <v>166.232614839031</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>0.00145915295247594</v>
+        <v>1459.15295247594</v>
       </c>
       <c r="K99" s="4" t="n">
-        <v>0.0060028444247428</v>
+        <v>6002.8444247428</v>
       </c>
       <c r="L99" s="4" t="n">
-        <v>0.00245654864151013</v>
+        <v>2456.54864151013</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,16 +3860,16 @@
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="4" t="n">
-        <v>0.000295524648602722</v>
+        <v>295.524648602722</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>0.00163462071258381</v>
+        <v>1634.62071258381</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>0.00623372305646368</v>
+        <v>6233.72305646368</v>
       </c>
       <c r="L100" s="4" t="n">
-        <v>0.00273360299957518</v>
+        <v>2733.60299957518</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,16 +3896,16 @@
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="4" t="n">
-        <v>0.000350935520215733</v>
+        <v>350.935520215733</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>0.00185626419903585</v>
+        <v>1856.26419903585</v>
       </c>
       <c r="K101" s="4" t="n">
-        <v>0.00653848285033524</v>
+        <v>6538.48285033524</v>
       </c>
       <c r="L101" s="4" t="n">
-        <v>0.00283518959753237</v>
+        <v>2835.18959753237</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,16 +3932,16 @@
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="4" t="n">
-        <v>0.000461757263441754</v>
+        <v>461.757263441754</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>0.00205943739495022</v>
+        <v>2059.43739495022</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>0.00683400749893796</v>
+        <v>6834.00749893796</v>
       </c>
       <c r="L102" s="4" t="n">
-        <v>0.00298295192183373</v>
+        <v>2982.95192183373</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,16 +3968,16 @@
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="4" t="n">
-        <v>0.000424816682366414</v>
+        <v>424.816682366414</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>0.0023180214624776</v>
+        <v>2318.0214624776</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>0.00718494301915369</v>
+        <v>7184.94301915369</v>
       </c>
       <c r="L103" s="4" t="n">
-        <v>0.00312147910086626</v>
+        <v>3121.47910086626</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,16 +4004,16 @@
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="4" t="n">
-        <v>0.000350935520215733</v>
+        <v>350.935520215733</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>0.00250272436785431</v>
+        <v>2502.72436785431</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>0.00745276223194991</v>
+        <v>7452.76223194991</v>
       </c>
       <c r="L104" s="4" t="n">
-        <v>0.00329694686097412</v>
+        <v>3296.94686097412</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,16 +4040,16 @@
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="4" t="n">
-        <v>0.000240113776989712</v>
+        <v>240.113776989712</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>0.00265048669215567</v>
+        <v>2650.48669215567</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>0.00766517057313312</v>
+        <v>7665.17057313312</v>
       </c>
       <c r="L105" s="4" t="n">
-        <v>0.00339853345893131</v>
+        <v>3398.53345893131</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,16 +4076,16 @@
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="4" t="n">
-        <v>0.000304759793871558</v>
+        <v>304.759793871558</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>0.00286289503333887</v>
+        <v>2862.89503333887</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>0.00793298978592933</v>
+        <v>7932.98978592933</v>
       </c>
       <c r="L106" s="4" t="n">
-        <v>0.00378640956022238</v>
+        <v>3786.40956022238</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,16 +4112,16 @@
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="4" t="n">
-        <v>0.000424816682366414</v>
+        <v>424.816682366414</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>0.00311224395559742</v>
+        <v>3112.24395559742</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>0.00824698472506972</v>
+        <v>8246.98472506972</v>
       </c>
       <c r="L107" s="4" t="n">
-        <v>0.00413734508043812</v>
+        <v>4137.34508043812</v>
       </c>
     </row>
     <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
